--- a/data/raw/raw_US_macro_finance.xlsx
+++ b/data/raw/raw_US_macro_finance.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2892"/>
+  <dimension ref="A1:L2895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63435,6 +63435,64 @@
       <c r="K2892" t="inlineStr"/>
       <c r="L2892" t="inlineStr"/>
     </row>
+    <row r="2893">
+      <c r="A2893" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B2893" t="inlineStr"/>
+      <c r="C2893" t="inlineStr"/>
+      <c r="D2893" t="inlineStr"/>
+      <c r="E2893" t="inlineStr"/>
+      <c r="F2893" t="inlineStr"/>
+      <c r="G2893" t="inlineStr"/>
+      <c r="H2893" t="inlineStr"/>
+      <c r="I2893" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="J2893" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="K2893" t="inlineStr"/>
+      <c r="L2893" t="inlineStr"/>
+    </row>
+    <row r="2894">
+      <c r="A2894" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B2894" t="inlineStr"/>
+      <c r="C2894" t="inlineStr"/>
+      <c r="D2894" t="inlineStr"/>
+      <c r="E2894" t="inlineStr"/>
+      <c r="F2894" t="inlineStr"/>
+      <c r="G2894" t="inlineStr"/>
+      <c r="H2894" t="inlineStr"/>
+      <c r="I2894" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="J2894" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="K2894" t="inlineStr"/>
+      <c r="L2894" t="inlineStr"/>
+    </row>
+    <row r="2895">
+      <c r="A2895" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B2895" t="inlineStr"/>
+      <c r="C2895" t="inlineStr"/>
+      <c r="D2895" t="inlineStr"/>
+      <c r="E2895" t="inlineStr"/>
+      <c r="F2895" t="inlineStr"/>
+      <c r="G2895" t="inlineStr"/>
+      <c r="H2895" t="inlineStr"/>
+      <c r="I2895" t="inlineStr"/>
+      <c r="J2895" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="K2895" t="inlineStr"/>
+      <c r="L2895" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
